--- a/results/metrics_comparison.xlsx
+++ b/results/metrics_comparison.xlsx
@@ -485,16 +485,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>21.1926407</v>
+        <v>1.566956363636363</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8670871986347221</v>
+        <v>0.6899027024645342</v>
       </c>
       <c r="E2" t="n">
-        <v>20.292898</v>
+        <v>0.292954</v>
       </c>
       <c r="F2" t="n">
-        <v>22.969202</v>
+        <v>2.175969</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -513,22 +513,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.8054471</v>
+        <v>1.393645111111111</v>
       </c>
       <c r="D3" t="n">
-        <v>4.367834970089241</v>
+        <v>1.618723348686066</v>
       </c>
       <c r="E3" t="n">
-        <v>10.721036</v>
+        <v>0.282472</v>
       </c>
       <c r="F3" t="n">
-        <v>20.660712</v>
+        <v>5.837838</v>
       </c>
       <c r="G3" t="n">
-        <v>1.535092673673713</v>
+        <v>1.12435823951413</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7675463368368564</v>
+        <v>0.5621791197570652</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>7.159249700000001</v>
+        <v>0.6988172</v>
       </c>
       <c r="D4" t="n">
-        <v>2.483036977580078</v>
+        <v>1.04263814740041</v>
       </c>
       <c r="E4" t="n">
-        <v>6.115057</v>
+        <v>0.061012</v>
       </c>
       <c r="F4" t="n">
-        <v>14.551037</v>
+        <v>3.652079</v>
       </c>
       <c r="G4" t="n">
-        <v>2.960176217907304</v>
+        <v>2.242297933760593</v>
       </c>
       <c r="H4" t="n">
-        <v>0.740044054476826</v>
+        <v>0.5605744834401484</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1995815</v>
+        <v>0.1370212</v>
       </c>
       <c r="D5" t="n">
-        <v>19.91023602524445</v>
+        <v>0.09058113210906564</v>
       </c>
       <c r="E5" t="n">
-        <v>1.511822</v>
+        <v>0.062064</v>
       </c>
       <c r="F5" t="n">
-        <v>52.854251</v>
+        <v>0.327512</v>
       </c>
       <c r="G5" t="n">
-        <v>1.605553986692684</v>
+        <v>11.43586805280032</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2006942483365856</v>
+        <v>1.42948350660004</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>1.5558723</v>
+        <v>0.06250152631578948</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05787730392139911</v>
+        <v>0.001465114918015542</v>
       </c>
       <c r="E6" t="n">
-        <v>1.518338</v>
+        <v>0.060903</v>
       </c>
       <c r="F6" t="n">
-        <v>1.726304</v>
+        <v>0.066317</v>
       </c>
       <c r="G6" t="n">
-        <v>13.62106690889735</v>
+        <v>25.07068956555242</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8513166818060841</v>
+        <v>1.566918097847027</v>
       </c>
     </row>
     <row r="7">
@@ -625,16 +625,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.4459133</v>
+        <v>696.93121825</v>
       </c>
       <c r="D7" t="n">
-        <v>7.791680503747007</v>
+        <v>885.417885649199</v>
       </c>
       <c r="E7" t="n">
-        <v>3.587196</v>
+        <v>3.264209</v>
       </c>
       <c r="F7" t="n">
-        <v>24.145052</v>
+        <v>1850.354518</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -653,22 +653,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1574062</v>
+        <v>5.5168652</v>
       </c>
       <c r="D8" t="n">
-        <v>3.855216270745127</v>
+        <v>0.8470251041155511</v>
       </c>
       <c r="E8" t="n">
-        <v>11.436251</v>
+        <v>3.933985</v>
       </c>
       <c r="F8" t="n">
-        <v>21.184325</v>
+        <v>6.322965</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8062632873546314</v>
+        <v>126.3273966255329</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4031316436773157</v>
+        <v>63.16369831276646</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>11.058145</v>
+        <v>444.88601</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02534507853607857</v>
+        <v>621.2340630875782</v>
       </c>
       <c r="E9" t="n">
-        <v>11.001466</v>
+        <v>2.468538</v>
       </c>
       <c r="F9" t="n">
-        <v>11.095623</v>
+        <v>1323.833494</v>
       </c>
       <c r="G9" t="n">
-        <v>1.396790628084547</v>
+        <v>1.566538849468429</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3491976570211369</v>
+        <v>0.3916347123671073</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>4.058853399999999</v>
+        <v>590.1828014444445</v>
       </c>
       <c r="D10" t="n">
-        <v>2.20093677245323</v>
+        <v>655.5727601484662</v>
       </c>
       <c r="E10" t="n">
-        <v>1.350406</v>
+        <v>3.502979</v>
       </c>
       <c r="F10" t="n">
-        <v>6.756024</v>
+        <v>1326.076888</v>
       </c>
       <c r="G10" t="n">
-        <v>3.805486864837247</v>
+        <v>1.180873479444494</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4756858581046559</v>
+        <v>0.1476091849305617</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>1.1321721</v>
+        <v>137.7487277</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5760031231353611</v>
+        <v>394.7623399412178</v>
       </c>
       <c r="E11" t="n">
-        <v>0.188357</v>
+        <v>3.797271</v>
       </c>
       <c r="F11" t="n">
-        <v>1.826159</v>
+        <v>1323.269519</v>
       </c>
       <c r="G11" t="n">
-        <v>13.64272560682249</v>
+        <v>5.059438514509054</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8526703504264058</v>
+        <v>0.3162149071568159</v>
       </c>
     </row>
   </sheetData>

--- a/results/metrics_comparison.xlsx
+++ b/results/metrics_comparison.xlsx
@@ -485,16 +485,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.566956363636363</v>
+        <v>116.61</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6899027024645342</v>
+        <v>0.2651414716712568</v>
       </c>
       <c r="E2" t="n">
-        <v>0.292954</v>
+        <v>116.26</v>
       </c>
       <c r="F2" t="n">
-        <v>2.175969</v>
+        <v>117.06</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -513,22 +513,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.393645111111111</v>
+        <v>89.18400000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>1.618723348686066</v>
+        <v>28.7016341695033</v>
       </c>
       <c r="E3" t="n">
-        <v>0.282472</v>
+        <v>11.51</v>
       </c>
       <c r="F3" t="n">
-        <v>5.837838</v>
+        <v>134.73</v>
       </c>
       <c r="G3" t="n">
-        <v>1.12435823951413</v>
+        <v>1.307521528525296</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5621791197570652</v>
+        <v>0.6537607642626478</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6988172</v>
+        <v>153.8933333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>1.04263814740041</v>
+        <v>38.94159843777459</v>
       </c>
       <c r="E4" t="n">
-        <v>0.061012</v>
+        <v>109.47</v>
       </c>
       <c r="F4" t="n">
-        <v>3.652079</v>
+        <v>218.6</v>
       </c>
       <c r="G4" t="n">
-        <v>2.242297933760593</v>
+        <v>0.7577326286605441</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5605744834401484</v>
+        <v>0.189433157165136</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1370212</v>
+        <v>20.819</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09058113210906564</v>
+        <v>4.550422947375331</v>
       </c>
       <c r="E5" t="n">
-        <v>0.062064</v>
+        <v>11.54</v>
       </c>
       <c r="F5" t="n">
-        <v>0.327512</v>
+        <v>23.19</v>
       </c>
       <c r="G5" t="n">
-        <v>11.43586805280032</v>
+        <v>5.601133579902973</v>
       </c>
       <c r="H5" t="n">
-        <v>1.42948350660004</v>
+        <v>0.7001416974878716</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06250152631578948</v>
+        <v>12.349</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001465114918015542</v>
+        <v>1.585758178285706</v>
       </c>
       <c r="E6" t="n">
-        <v>0.060903</v>
+        <v>11.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.066317</v>
+        <v>15.91</v>
       </c>
       <c r="G6" t="n">
-        <v>25.07068956555242</v>
+        <v>9.442869868005506</v>
       </c>
       <c r="H6" t="n">
-        <v>1.566918097847027</v>
+        <v>0.5901793667503441</v>
       </c>
     </row>
     <row r="7">
@@ -625,16 +625,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>696.93121825</v>
+        <v>199.8483239</v>
       </c>
       <c r="D7" t="n">
-        <v>885.417885649199</v>
+        <v>51.0540548344935</v>
       </c>
       <c r="E7" t="n">
-        <v>3.264209</v>
+        <v>97.933712</v>
       </c>
       <c r="F7" t="n">
-        <v>1850.354518</v>
+        <v>238.498699</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -653,22 +653,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5.5168652</v>
+        <v>215.4676037</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8470251041155511</v>
+        <v>45.45266000656075</v>
       </c>
       <c r="E8" t="n">
-        <v>3.933985</v>
+        <v>113.817723</v>
       </c>
       <c r="F8" t="n">
-        <v>6.322965</v>
+        <v>238.112435</v>
       </c>
       <c r="G8" t="n">
-        <v>126.3273966255329</v>
+        <v>0.9275098458803716</v>
       </c>
       <c r="H8" t="n">
-        <v>63.16369831276646</v>
+        <v>0.4637549229401858</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>444.88601</v>
+        <v>148.7773162</v>
       </c>
       <c r="D9" t="n">
-        <v>621.2340630875782</v>
+        <v>38.65474546320701</v>
       </c>
       <c r="E9" t="n">
-        <v>2.468538</v>
+        <v>100.655749</v>
       </c>
       <c r="F9" t="n">
-        <v>1323.833494</v>
+        <v>180.43872</v>
       </c>
       <c r="G9" t="n">
-        <v>1.566538849468429</v>
+        <v>1.343271467750807</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3916347123671073</v>
+        <v>0.3358178669377018</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>590.1828014444445</v>
+        <v>78.7779712</v>
       </c>
       <c r="D10" t="n">
-        <v>655.5727601484662</v>
+        <v>14.14336918477967</v>
       </c>
       <c r="E10" t="n">
-        <v>3.502979</v>
+        <v>45.036978</v>
       </c>
       <c r="F10" t="n">
-        <v>1326.076888</v>
+        <v>99.25004199999999</v>
       </c>
       <c r="G10" t="n">
-        <v>1.180873479444494</v>
+        <v>2.536855428691213</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1476091849305617</v>
+        <v>0.3171069285864016</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>137.7487277</v>
+        <v>56.2451128</v>
       </c>
       <c r="D11" t="n">
-        <v>394.7623399412178</v>
+        <v>11.7325004975853</v>
       </c>
       <c r="E11" t="n">
-        <v>3.797271</v>
+        <v>21.047996</v>
       </c>
       <c r="F11" t="n">
-        <v>1323.269519</v>
+        <v>60.234732</v>
       </c>
       <c r="G11" t="n">
-        <v>5.059438514509054</v>
+        <v>3.553167803407801</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3162149071568159</v>
+        <v>0.2220729877129876</v>
       </c>
     </row>
   </sheetData>
